--- a/ig/ch-lab-report/ValueSet-ch-lab-bloodgroup-immuno-hematology-vs.xlsx
+++ b/ig/ch-lab-report/ValueSet-ch-lab-bloodgroup-immuno-hematology-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-lab-report/ValueSet-ch-lab-bloodgroup-immuno-hematology-vs.xlsx
+++ b/ig/ch-lab-report/ValueSet-ch-lab-bloodgroup-immuno-hematology-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
